--- a/Regression Model Data Management.xlsx
+++ b/Regression Model Data Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89f5e6f8f2dcd06a/Desktop/Data Management/Data Management Project/Alcohol_On_Student_Performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2512AA2-28D1-4753-BB49-A4D0D7CDA088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B2512AA2-28D1-4753-BB49-A4D0D7CDA088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD0B3797-EB28-4160-A8D6-71C04C249ED9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{FD62AA35-3291-434B-A996-143493C9ABD1}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <t>Study Time</t>
   </si>
   <si>
-    <t>Weekday Alcohol Consumption</t>
+    <t>Daily Alcohol Consumption</t>
   </si>
 </sst>
 </file>
@@ -97,10 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -439,7 +438,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,18 +456,18 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.56869999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>-0.28310000000000002</v>
       </c>
     </row>
